--- a/outcome/appendix/data/PHSMs/Malaria.xlsx
+++ b/outcome/appendix/data/PHSMs/Malaria.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">疟疾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>756.089884433158</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>348</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-153.03180765142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>1056.80691947568</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>59.2827623820241</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>1333.72427652183</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>92</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62.4555774801088</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>1578.56059592184</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>54</v>
+      </c>
+      <c r="I5" t="n">
+        <v>135.028111699372</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>1651.71524822641</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>40</v>
+      </c>
+      <c r="I6" t="n">
+        <v>146.635093452163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>1712.78833676436</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>74</v>
+      </c>
+      <c r="I7" t="n">
+        <v>141.587800881052</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>1713.75735999405</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>57</v>
+      </c>
+      <c r="I8" t="n">
+        <v>152.252245653506</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>1733.09273808734</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>169.284255043527</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>1725.83027064495</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>131.867426864414</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>1739.0052916405</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>141.582426667128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>1737.09201489141</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>63</v>
+      </c>
+      <c r="I12" t="n">
+        <v>147.728874617163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>1752.59704243783</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>73</v>
+      </c>
+      <c r="I13" t="n">
+        <v>142.685984651407</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>1756.90534696053</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>68</v>
+      </c>
+      <c r="I14" t="n">
+        <v>141.950068327087</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>1772.92726223325</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>58</v>
+      </c>
+      <c r="I15" t="n">
+        <v>156.281913111741</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>1779.59804736717</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>63</v>
+      </c>
+      <c r="I16" t="n">
+        <v>147.648974730652</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>1793.91269603846</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>74</v>
+      </c>
+      <c r="I17" t="n">
+        <v>140.055469556278</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>1801.08293143783</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>97</v>
+      </c>
+      <c r="I18" t="n">
+        <v>114.483817915183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>1813.68984914946</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>109</v>
+      </c>
+      <c r="I19" t="n">
+        <v>104.906154189547</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>1821.21147714891</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>92</v>
+      </c>
+      <c r="I20" t="n">
+        <v>119.958284310136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>1832.78380622709</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>60</v>
+      </c>
+      <c r="I21" t="n">
+        <v>153.642670763271</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>1840.76936029509</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>49</v>
+      </c>
+      <c r="I22" t="n">
+        <v>163.185457899501</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>1851.73960615993</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>46</v>
+      </c>
+      <c r="I23" t="n">
+        <v>167.389009849199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>1860.12174199877</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>62</v>
+      </c>
+      <c r="I24" t="n">
+        <v>150.33196080247</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>1870.65084018355</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>72</v>
+      </c>
+      <c r="I25" t="n">
+        <v>141.212581223841</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>1879.27904594066</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>26</v>
+      </c>
+      <c r="I26" t="n">
+        <v>186.454964912115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>1889.4353811996</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>30</v>
+      </c>
+      <c r="I27" t="n">
+        <v>183.100241095265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>1898.19210188341</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>31</v>
+      </c>
+      <c r="I28" t="n">
+        <v>181.554306940894</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>1908.03772329468</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>34</v>
+      </c>
+      <c r="I29" t="n">
+        <v>179.023230151605</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>1916.85566761562</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>37</v>
+      </c>
+      <c r="I30" t="n">
+        <v>175.626834748669</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>1926.45054388462</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>62</v>
+      </c>
+      <c r="I31" t="n">
+        <v>150.965920461489</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>1935.29013318732</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>79</v>
+      </c>
+      <c r="I32" t="n">
+        <v>133.67755770631</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>1944.68156484805</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>217</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-4.07710759426186</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>1953.5146679815</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>96</v>
+      </c>
+      <c r="I34" t="n">
+        <v>116.713524521726</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>1962.73597701756</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>92</v>
+      </c>
+      <c r="I35" t="n">
+        <v>120.891422297988</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>1971.54116446099</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>74</v>
+      </c>
+      <c r="I36" t="n">
+        <v>138.739675057615</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/Malaria.xlsx
+++ b/outcome/appendix/data/PHSMs/Malaria.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>194.96819234858</v>
+        <v>233.033148307548</v>
       </c>
       <c r="C2" t="n">
-        <v>-171.929561193957</v>
+        <v>156.838362208423</v>
       </c>
       <c r="D2" t="n">
-        <v>-366.153499735997</v>
+        <v>116.503278906189</v>
       </c>
       <c r="E2" t="n">
-        <v>561.865945891118</v>
+        <v>309.227934406674</v>
       </c>
       <c r="F2" t="n">
-        <v>756.089884433158</v>
+        <v>349.563017708907</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-153.03180765142</v>
+        <v>-114.966851692452</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>185.282762382024</v>
+        <v>171.21827713274</v>
       </c>
       <c r="C3" t="n">
-        <v>-384.576253775062</v>
+        <v>90.7739069689634</v>
       </c>
       <c r="D3" t="n">
-        <v>-686.241394711635</v>
+        <v>48.1892297506249</v>
       </c>
       <c r="E3" t="n">
-        <v>755.141778539111</v>
+        <v>251.662647296516</v>
       </c>
       <c r="F3" t="n">
-        <v>1056.80691947568</v>
+        <v>294.247324514855</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>59.2827623820241</v>
+        <v>45.2182771327398</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>154.455577480109</v>
+        <v>188.638918298741</v>
       </c>
       <c r="C4" t="n">
-        <v>-616.626778816006</v>
+        <v>78.323217461424</v>
       </c>
       <c r="D4" t="n">
-        <v>-1024.81312156162</v>
+        <v>19.9256129714171</v>
       </c>
       <c r="E4" t="n">
-        <v>925.537933776224</v>
+        <v>298.954619136058</v>
       </c>
       <c r="F4" t="n">
-        <v>1333.72427652183</v>
+        <v>357.352223626065</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>62.4555774801088</v>
+        <v>96.6389182987408</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>189.028111699372</v>
+        <v>249.670716448393</v>
       </c>
       <c r="C5" t="n">
-        <v>-719.538343897141</v>
+        <v>78.3007642475441</v>
       </c>
       <c r="D5" t="n">
-        <v>-1200.50437252309</v>
+        <v>-12.4170086001742</v>
       </c>
       <c r="E5" t="n">
-        <v>1097.59456729589</v>
+        <v>421.040668649242</v>
       </c>
       <c r="F5" t="n">
-        <v>1578.56059592184</v>
+        <v>511.75844149696</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>135.028111699372</v>
+        <v>195.670716448393</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>186.635093452163</v>
+        <v>346.240164317507</v>
       </c>
       <c r="C6" t="n">
-        <v>-771.329328756275</v>
+        <v>76.1150981327257</v>
       </c>
       <c r="D6" t="n">
-        <v>-1278.44506132208</v>
+        <v>-66.8804741943608</v>
       </c>
       <c r="E6" t="n">
-        <v>1144.5995156606</v>
+        <v>616.365230502287</v>
       </c>
       <c r="F6" t="n">
-        <v>1651.71524822641</v>
+        <v>759.360802829374</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>146.635093452163</v>
+        <v>306.240164317507</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>215.587800881052</v>
+        <v>418.317489922918</v>
       </c>
       <c r="C7" t="n">
-        <v>-763.379009647226</v>
+        <v>54.8027525684657</v>
       </c>
       <c r="D7" t="n">
-        <v>-1281.61273500226</v>
+        <v>-137.630325381333</v>
       </c>
       <c r="E7" t="n">
-        <v>1194.55461140933</v>
+        <v>781.832227277369</v>
       </c>
       <c r="F7" t="n">
-        <v>1712.78833676436</v>
+        <v>974.265305227168</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>141.587800881052</v>
+        <v>344.317489922918</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>209.252245653506</v>
+        <v>407.749246883907</v>
       </c>
       <c r="C8" t="n">
-        <v>-774.490772004773</v>
+        <v>18.5316369571958</v>
       </c>
       <c r="D8" t="n">
-        <v>-1295.25286868703</v>
+        <v>-187.507719839032</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.99526331179</v>
+        <v>796.966856810618</v>
       </c>
       <c r="F8" t="n">
-        <v>1713.75735999405</v>
+        <v>1003.00621360685</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>152.252245653506</v>
+        <v>350.749246883907</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>223.284255043527</v>
+        <v>338.407445267384</v>
       </c>
       <c r="C9" t="n">
-        <v>-763.926449020189</v>
+        <v>-12.8428536711266</v>
       </c>
       <c r="D9" t="n">
-        <v>-1286.52422800028</v>
+        <v>-198.783530099927</v>
       </c>
       <c r="E9" t="n">
-        <v>1210.49495910724</v>
+        <v>689.657744205895</v>
       </c>
       <c r="F9" t="n">
-        <v>1733.09273808734</v>
+        <v>875.598420634695</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>54</v>
       </c>
       <c r="I9" t="n">
-        <v>169.284255043527</v>
+        <v>284.407445267384</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>212.867426864414</v>
+        <v>287.170117336243</v>
       </c>
       <c r="C10" t="n">
-        <v>-776.405802823413</v>
+        <v>-34.4513747079494</v>
       </c>
       <c r="D10" t="n">
-        <v>-1300.09541691613</v>
+        <v>-204.707508198688</v>
       </c>
       <c r="E10" t="n">
-        <v>1202.14065655224</v>
+        <v>608.791609380435</v>
       </c>
       <c r="F10" t="n">
-        <v>1725.83027064495</v>
+        <v>779.047742871174</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>131.867426864414</v>
+        <v>206.170117336243</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>219.582426667128</v>
+        <v>271.136660561401</v>
       </c>
       <c r="C11" t="n">
-        <v>-773.91478383791</v>
+        <v>-54.5474078630189</v>
       </c>
       <c r="D11" t="n">
-        <v>-1299.84043830624</v>
+        <v>-226.95413938162</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.07963717217</v>
+        <v>596.820728985821</v>
       </c>
       <c r="F11" t="n">
-        <v>1739.0052916405</v>
+        <v>769.227460504422</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>141.582426667128</v>
+        <v>193.136660561401</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>210.728874617163</v>
+        <v>228.019696454054</v>
       </c>
       <c r="C12" t="n">
-        <v>-787.306337987557</v>
+        <v>-64.3089161340004</v>
       </c>
       <c r="D12" t="n">
-        <v>-1315.63426565708</v>
+        <v>-219.058335930596</v>
       </c>
       <c r="E12" t="n">
-        <v>1208.76408722188</v>
+        <v>520.348309042108</v>
       </c>
       <c r="F12" t="n">
-        <v>1737.09201489141</v>
+        <v>675.097728838703</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>147.728874617163</v>
+        <v>165.019696454054</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>215.685984651407</v>
+        <v>204.00139530465</v>
       </c>
       <c r="C13" t="n">
-        <v>-789.24614050252</v>
+        <v>-74.0282118666715</v>
       </c>
       <c r="D13" t="n">
-        <v>-1321.22507313501</v>
+        <v>-221.208195430811</v>
       </c>
       <c r="E13" t="n">
-        <v>1220.61810980533</v>
+        <v>482.031002475972</v>
       </c>
       <c r="F13" t="n">
-        <v>1752.59704243783</v>
+        <v>629.210986040111</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>142.685984651407</v>
+        <v>131.00139530465</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>209.950068327087</v>
+        <v>233.034704535841</v>
       </c>
       <c r="C14" t="n">
-        <v>-801.549619829381</v>
+        <v>-103.475905909737</v>
       </c>
       <c r="D14" t="n">
-        <v>-1337.00521030636</v>
+        <v>-281.613862577136</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.44975648355</v>
+        <v>569.545314981419</v>
       </c>
       <c r="F14" t="n">
-        <v>1756.90534696053</v>
+        <v>747.683271648818</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>141.950068327087</v>
+        <v>165.034704535841</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>214.281913111741</v>
+        <v>171.219420552588</v>
       </c>
       <c r="C15" t="n">
-        <v>-804.861501283309</v>
+        <v>-90.0133090601153</v>
       </c>
       <c r="D15" t="n">
-        <v>-1344.36343600976</v>
+        <v>-228.30156275362</v>
       </c>
       <c r="E15" t="n">
-        <v>1233.42532750679</v>
+        <v>432.452150165292</v>
       </c>
       <c r="F15" t="n">
-        <v>1772.92726223325</v>
+        <v>570.740403858797</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>156.281913111741</v>
+        <v>113.219420552588</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>210.648974730652</v>
+        <v>188.640178056093</v>
       </c>
       <c r="C16" t="n">
-        <v>-815.231682341182</v>
+        <v>-114.723596336576</v>
       </c>
       <c r="D16" t="n">
-        <v>-1358.30009790587</v>
+        <v>-275.314677924356</v>
       </c>
       <c r="E16" t="n">
-        <v>1236.52963180249</v>
+        <v>492.003952448761</v>
       </c>
       <c r="F16" t="n">
-        <v>1779.59804736717</v>
+        <v>652.595034036542</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>147.648974730652</v>
+        <v>125.640178056093</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>214.055469556278</v>
+        <v>249.672383784717</v>
       </c>
       <c r="C17" t="n">
-        <v>-818.957645942539</v>
+        <v>-172.662168403088</v>
       </c>
       <c r="D17" t="n">
-        <v>-1365.80175692591</v>
+        <v>-396.232575461452</v>
       </c>
       <c r="E17" t="n">
-        <v>1247.0685850551</v>
+        <v>672.006935972522</v>
       </c>
       <c r="F17" t="n">
-        <v>1793.91269603846</v>
+        <v>895.577343030886</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>140.055469556278</v>
+        <v>175.672383784717</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>211.483817915183</v>
+        <v>346.242476558249</v>
       </c>
       <c r="C18" t="n">
-        <v>-827.899175135745</v>
+        <v>-268.710063518043</v>
       </c>
       <c r="D18" t="n">
-        <v>-1378.11529560747</v>
+        <v>-594.246274074868</v>
       </c>
       <c r="E18" t="n">
-        <v>1250.86681096611</v>
+        <v>961.195016634541</v>
       </c>
       <c r="F18" t="n">
-        <v>1801.08293143783</v>
+        <v>1286.73122719137</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>114.483817915183</v>
+        <v>249.242476558249</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>213.906154189547</v>
+        <v>418.320283506225</v>
       </c>
       <c r="C19" t="n">
-        <v>-832.136178720833</v>
+        <v>-360.541981809119</v>
       </c>
       <c r="D19" t="n">
-        <v>-1385.87754077037</v>
+        <v>-772.846759613607</v>
       </c>
       <c r="E19" t="n">
-        <v>1259.94848709993</v>
+        <v>1197.18254882157</v>
       </c>
       <c r="F19" t="n">
-        <v>1813.68984914946</v>
+        <v>1609.48732662606</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>104.906154189547</v>
+        <v>309.320283506225</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>211.958284310136</v>
+        <v>407.751969890994</v>
       </c>
       <c r="C20" t="n">
-        <v>-840.275820452842</v>
+        <v>-387.005473417217</v>
       </c>
       <c r="D20" t="n">
-        <v>-1397.29490852864</v>
+        <v>-807.724650175618</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.19238907311</v>
+        <v>1202.5094131992</v>
       </c>
       <c r="F20" t="n">
-        <v>1821.21147714891</v>
+        <v>1623.22858995761</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>119.958284310136</v>
+        <v>315.751969890994</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>213.642670763271</v>
+        <v>338.409705200122</v>
       </c>
       <c r="C21" t="n">
-        <v>-845.056812165372</v>
+        <v>-351.246842914962</v>
       </c>
       <c r="D21" t="n">
-        <v>-1405.49846470055</v>
+        <v>-716.328966539059</v>
       </c>
       <c r="E21" t="n">
-        <v>1272.34215369191</v>
+        <v>1028.06625331521</v>
       </c>
       <c r="F21" t="n">
-        <v>1832.78380622709</v>
+        <v>1393.1483769393</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>153.642670763271</v>
+        <v>278.409705200122</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>212.185457899501</v>
+        <v>287.172035098865</v>
       </c>
       <c r="C22" t="n">
-        <v>-852.688318454909</v>
+        <v>-324.060895594423</v>
       </c>
       <c r="D22" t="n">
-        <v>-1416.39844449609</v>
+        <v>-647.628063884759</v>
       </c>
       <c r="E22" t="n">
-        <v>1277.05923425391</v>
+        <v>898.404965792152</v>
       </c>
       <c r="F22" t="n">
-        <v>1840.76936029509</v>
+        <v>1221.97213408249</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>163.185457899501</v>
+        <v>238.172035098865</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>213.389009849199</v>
+        <v>271.138471250333</v>
       </c>
       <c r="C23" t="n">
-        <v>-857.870864400822</v>
+        <v>-331.009716905964</v>
       </c>
       <c r="D23" t="n">
-        <v>-1424.96158646153</v>
+        <v>-649.767712997402</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.64888409922</v>
+        <v>873.28665940663</v>
       </c>
       <c r="F23" t="n">
-        <v>1851.73960615993</v>
+        <v>1192.04465549807</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>167.389009849199</v>
+        <v>225.138471250333</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>212.33196080247</v>
+        <v>228.021219201807</v>
       </c>
       <c r="C24" t="n">
-        <v>-865.099864699198</v>
+        <v>-299.878645781263</v>
       </c>
       <c r="D24" t="n">
-        <v>-1435.45782039383</v>
+        <v>-579.331953801957</v>
       </c>
       <c r="E24" t="n">
-        <v>1289.76378630414</v>
+        <v>755.921084184877</v>
       </c>
       <c r="F24" t="n">
-        <v>1860.12174199877</v>
+        <v>1035.37439220557</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>150.33196080247</v>
+        <v>166.021219201807</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>213.212581223841</v>
+        <v>204.002757654794</v>
       </c>
       <c r="C25" t="n">
-        <v>-870.528044786589</v>
+        <v>-287.958002814693</v>
       </c>
       <c r="D25" t="n">
-        <v>-1444.22567773587</v>
+        <v>-548.386298120249</v>
       </c>
       <c r="E25" t="n">
-        <v>1296.95320723427</v>
+        <v>695.963518124281</v>
       </c>
       <c r="F25" t="n">
-        <v>1870.65084018355</v>
+        <v>956.391813429837</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>141.212581223841</v>
+        <v>132.002757654794</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>212.454964912115</v>
+        <v>233.036260774527</v>
       </c>
       <c r="C26" t="n">
-        <v>-877.422720279561</v>
+        <v>-351.923989685411</v>
       </c>
       <c r="D26" t="n">
-        <v>-1454.36911611643</v>
+        <v>-661.583241174111</v>
       </c>
       <c r="E26" t="n">
-        <v>1302.33265010379</v>
+        <v>817.996511234465</v>
       </c>
       <c r="F26" t="n">
-        <v>1879.27904594066</v>
+        <v>1127.65576272316</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>186.454964912115</v>
+        <v>207.036260774527</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>213.100241095265</v>
+        <v>171.220563980073</v>
       </c>
       <c r="C27" t="n">
-        <v>-882.996391354989</v>
+        <v>-275.854082531669</v>
       </c>
       <c r="D27" t="n">
-        <v>-1463.23489900907</v>
+        <v>-512.521104418283</v>
       </c>
       <c r="E27" t="n">
-        <v>1309.19687354552</v>
+        <v>618.295210491815</v>
       </c>
       <c r="F27" t="n">
-        <v>1889.4353811996</v>
+        <v>854.962232378428</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>183.100241095265</v>
+        <v>141.220563980073</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>212.554306940894</v>
+        <v>188.641437821857</v>
       </c>
       <c r="C28" t="n">
-        <v>-889.625004561439</v>
+        <v>-323.422556777626</v>
       </c>
       <c r="D28" t="n">
-        <v>-1473.08348800162</v>
+        <v>-594.492861396297</v>
       </c>
       <c r="E28" t="n">
-        <v>1314.73361844323</v>
+        <v>700.70543242134</v>
       </c>
       <c r="F28" t="n">
-        <v>1898.19210188341</v>
+        <v>971.775737040012</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>181.554306940894</v>
+        <v>157.641437821857</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>213.023230151605</v>
+        <v>249.674051132175</v>
       </c>
       <c r="C29" t="n">
-        <v>-895.287174755176</v>
+        <v>-454.513112327538</v>
       </c>
       <c r="D29" t="n">
-        <v>-1481.99126299147</v>
+        <v>-827.287279073796</v>
       </c>
       <c r="E29" t="n">
-        <v>1321.33363505839</v>
+        <v>953.861214591889</v>
       </c>
       <c r="F29" t="n">
-        <v>1908.03772329468</v>
+        <v>1326.63538133815</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>179.023230151605</v>
+        <v>215.674051132175</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>212.626834748669</v>
+        <v>346.244788814433</v>
       </c>
       <c r="C30" t="n">
-        <v>-901.708503060827</v>
+        <v>-667.924196160921</v>
       </c>
       <c r="D30" t="n">
-        <v>-1491.60199811828</v>
+        <v>-1204.79282701848</v>
       </c>
       <c r="E30" t="n">
-        <v>1326.96217255816</v>
+        <v>1360.41377378979</v>
       </c>
       <c r="F30" t="n">
-        <v>1916.85566761562</v>
+        <v>1897.28240464735</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>175.626834748669</v>
+        <v>309.244788814433</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>212.965920461489</v>
+        <v>418.323077108189</v>
       </c>
       <c r="C31" t="n">
-        <v>-907.421453493156</v>
+        <v>-853.580743831977</v>
       </c>
       <c r="D31" t="n">
-        <v>-1500.51870296164</v>
+        <v>-1526.88595533698</v>
       </c>
       <c r="E31" t="n">
-        <v>1333.35329441613</v>
+        <v>1690.22689804835</v>
       </c>
       <c r="F31" t="n">
-        <v>1926.45054388462</v>
+        <v>2363.53210955336</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>150.965920461489</v>
+        <v>356.323077108189</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>212.67755770631</v>
+        <v>407.754692916266</v>
       </c>
       <c r="C32" t="n">
-        <v>-913.678263292394</v>
+        <v>-878.64541814633</v>
       </c>
       <c r="D32" t="n">
-        <v>-1509.9350177747</v>
+        <v>-1559.62450209847</v>
       </c>
       <c r="E32" t="n">
-        <v>1339.03337870501</v>
+        <v>1694.15480397886</v>
       </c>
       <c r="F32" t="n">
-        <v>1935.29013318732</v>
+        <v>2375.133887931</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>133.67755770631</v>
+        <v>328.754692916266</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>212.922892405738</v>
+        <v>338.411965147952</v>
       </c>
       <c r="C33" t="n">
-        <v>-919.413239951664</v>
+        <v>-768.954627902795</v>
       </c>
       <c r="D33" t="n">
-        <v>-1518.83578003658</v>
+        <v>-1355.1590923225</v>
       </c>
       <c r="E33" t="n">
-        <v>1345.25902476314</v>
+        <v>1445.7785581987</v>
       </c>
       <c r="F33" t="n">
-        <v>1944.68156484805</v>
+        <v>2031.98302261841</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.07710759426186</v>
+        <v>121.411965147952</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>212.713524521726</v>
+        <v>287.173952874294</v>
       </c>
       <c r="C34" t="n">
-        <v>-925.535161831679</v>
+        <v>-687.157140584038</v>
       </c>
       <c r="D34" t="n">
-        <v>-1528.08761893805</v>
+        <v>-1202.93686555722</v>
       </c>
       <c r="E34" t="n">
-        <v>1350.96221087513</v>
+        <v>1261.50504633262</v>
       </c>
       <c r="F34" t="n">
-        <v>1953.5146679815</v>
+        <v>1777.28477130581</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>116.713524521726</v>
+        <v>191.173952874294</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>212.891422297988</v>
+        <v>271.140281951357</v>
       </c>
       <c r="C35" t="n">
-        <v>-931.27043284284</v>
+        <v>-682.381373198826</v>
       </c>
       <c r="D35" t="n">
-        <v>-1536.95313242158</v>
+        <v>-1187.14524694907</v>
       </c>
       <c r="E35" t="n">
-        <v>1357.05327743882</v>
+        <v>1224.66193710154</v>
       </c>
       <c r="F35" t="n">
-        <v>1962.73597701756</v>
+        <v>1729.42581085178</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>120.891422297988</v>
+        <v>179.140281951357</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>212.739675057615</v>
+        <v>228.022741959729</v>
       </c>
       <c r="C36" t="n">
-        <v>-937.278804876861</v>
+        <v>-602.898299584609</v>
       </c>
       <c r="D36" t="n">
-        <v>-1546.06181434576</v>
+        <v>-1042.76132885629</v>
       </c>
       <c r="E36" t="n">
-        <v>1362.75815499209</v>
+        <v>1058.94378350407</v>
       </c>
       <c r="F36" t="n">
-        <v>1971.54116446099</v>
+        <v>1498.80681277575</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>138.739675057615</v>
+        <v>154.022741959729</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>

--- a/outcome/appendix/data/PHSMs/Malaria.xlsx
+++ b/outcome/appendix/data/PHSMs/Malaria.xlsx
@@ -427,20 +427,12 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>233.033148307548</v>
-      </c>
-      <c r="C2" t="n">
-        <v>156.838362208423</v>
-      </c>
-      <c r="D2" t="n">
-        <v>116.503278906189</v>
-      </c>
-      <c r="E2" t="n">
-        <v>309.227934406674</v>
-      </c>
-      <c r="F2" t="n">
-        <v>349.563017708907</v>
-      </c>
+        <v>230.052131557668</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -448,7 +440,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-114.966851692452</v>
+        <v>-117.947868442332</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,20 +451,12 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>171.21827713274</v>
-      </c>
-      <c r="C3" t="n">
-        <v>90.7739069689634</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.1892297506249</v>
-      </c>
-      <c r="E3" t="n">
-        <v>251.662647296516</v>
-      </c>
-      <c r="F3" t="n">
-        <v>294.247324514855</v>
-      </c>
+        <v>227.048151578592</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -480,7 +464,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>45.2182771327398</v>
+        <v>101.048151578592</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,20 +475,12 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>188.638918298741</v>
-      </c>
-      <c r="C4" t="n">
-        <v>78.323217461424</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.9256129714171</v>
-      </c>
-      <c r="E4" t="n">
-        <v>298.954619136058</v>
-      </c>
-      <c r="F4" t="n">
-        <v>357.352223626065</v>
-      </c>
+        <v>225.85999235136</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -512,7 +488,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>96.6389182987408</v>
+        <v>133.85999235136</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,20 +499,12 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>249.670716448393</v>
-      </c>
-      <c r="C5" t="n">
-        <v>78.3007642475441</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-12.4170086001742</v>
-      </c>
-      <c r="E5" t="n">
-        <v>421.040668649242</v>
-      </c>
-      <c r="F5" t="n">
-        <v>511.75844149696</v>
-      </c>
+        <v>220.157366219144</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -544,7 +512,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>195.670716448393</v>
+        <v>166.157366219144</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,20 +523,12 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>346.240164317507</v>
-      </c>
-      <c r="C6" t="n">
-        <v>76.1150981327257</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-66.8804741943608</v>
-      </c>
-      <c r="E6" t="n">
-        <v>616.365230502287</v>
-      </c>
-      <c r="F6" t="n">
-        <v>759.360802829374</v>
-      </c>
+        <v>222.113258951209</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -576,7 +536,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>306.240164317507</v>
+        <v>182.113258951209</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,20 +547,12 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>418.317489922918</v>
-      </c>
-      <c r="C7" t="n">
-        <v>54.8027525684657</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-137.630325381333</v>
-      </c>
-      <c r="E7" t="n">
-        <v>781.832227277369</v>
-      </c>
-      <c r="F7" t="n">
-        <v>974.265305227168</v>
-      </c>
+        <v>229.692133407892</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -608,7 +560,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>344.317489922918</v>
+        <v>155.692133407892</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,20 +571,12 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>407.749246883907</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.5316369571958</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-187.507719839032</v>
-      </c>
-      <c r="E8" t="n">
-        <v>796.966856810618</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1003.00621360685</v>
-      </c>
+        <v>247.521354008609</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -640,7 +584,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>350.749246883907</v>
+        <v>190.521354008609</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,20 +595,12 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>338.407445267384</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-12.8428536711266</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-198.783530099927</v>
-      </c>
-      <c r="E9" t="n">
-        <v>689.657744205895</v>
-      </c>
-      <c r="F9" t="n">
-        <v>875.598420634695</v>
-      </c>
+        <v>234.45489653718</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -672,7 +608,7 @@
         <v>54</v>
       </c>
       <c r="I9" t="n">
-        <v>284.407445267384</v>
+        <v>180.45489653718</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,20 +619,12 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>287.170117336243</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-34.4513747079494</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-204.707508198688</v>
-      </c>
-      <c r="E10" t="n">
-        <v>608.791609380435</v>
-      </c>
-      <c r="F10" t="n">
-        <v>779.047742871174</v>
-      </c>
+        <v>241.304368979913</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,7 +632,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>206.170117336243</v>
+        <v>160.304368979913</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,20 +643,12 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>271.136660561401</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-54.5474078630189</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-226.95413938162</v>
-      </c>
-      <c r="E11" t="n">
-        <v>596.820728985821</v>
-      </c>
-      <c r="F11" t="n">
-        <v>769.227460504422</v>
-      </c>
+        <v>226.857025747402</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,7 +656,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>193.136660561401</v>
+        <v>148.857025747402</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,20 +667,12 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>228.019696454054</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-64.3089161340004</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-219.058335930596</v>
-      </c>
-      <c r="E12" t="n">
-        <v>520.348309042108</v>
-      </c>
-      <c r="F12" t="n">
-        <v>675.097728838703</v>
-      </c>
+        <v>233.721126190067</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +680,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>165.019696454054</v>
+        <v>170.721126190067</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,20 +691,12 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>204.00139530465</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-74.0282118666715</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-221.208195430811</v>
-      </c>
-      <c r="E13" t="n">
-        <v>482.031002475972</v>
-      </c>
-      <c r="F13" t="n">
-        <v>629.210986040111</v>
-      </c>
+        <v>228.109602864788</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -800,7 +704,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>131.00139530465</v>
+        <v>155.109602864788</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,20 +715,12 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>233.034704535841</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-103.475905909737</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-281.613862577136</v>
-      </c>
-      <c r="E14" t="n">
-        <v>569.545314981419</v>
-      </c>
-      <c r="F14" t="n">
-        <v>747.683271648818</v>
-      </c>
+        <v>231.8419506916</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -832,7 +728,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>165.034704535841</v>
+        <v>163.8419506916</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,20 +739,12 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>171.219420552588</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-90.0133090601153</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-228.30156275362</v>
-      </c>
-      <c r="E15" t="n">
-        <v>432.452150165292</v>
-      </c>
-      <c r="F15" t="n">
-        <v>570.740403858797</v>
-      </c>
+        <v>232.205722102806</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -864,7 +752,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>113.219420552588</v>
+        <v>174.205722102806</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,20 +763,12 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>188.640178056093</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-114.723596336576</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-275.314677924356</v>
-      </c>
-      <c r="E16" t="n">
-        <v>492.003952448761</v>
-      </c>
-      <c r="F16" t="n">
-        <v>652.595034036542</v>
-      </c>
+        <v>232.633933883709</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -896,7 +776,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>125.640178056093</v>
+        <v>169.633933883709</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,20 +787,12 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>249.672383784717</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-172.662168403088</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-396.232575461452</v>
-      </c>
-      <c r="E17" t="n">
-        <v>672.006935972522</v>
-      </c>
-      <c r="F17" t="n">
-        <v>895.577343030886</v>
-      </c>
+        <v>228.37358951553</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -928,7 +800,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>175.672383784717</v>
+        <v>154.37358951553</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,20 +811,12 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>346.242476558249</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-268.710063518043</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-594.246274074868</v>
-      </c>
-      <c r="E18" t="n">
-        <v>961.195016634541</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1286.73122719137</v>
-      </c>
+        <v>230.199408056702</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,7 +824,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>249.242476558249</v>
+        <v>133.199408056702</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,20 +835,12 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>418.320283506225</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-360.541981809119</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-772.846759613607</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1197.18254882157</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1609.48732662606</v>
-      </c>
+        <v>229.389733062742</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,7 +848,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>309.320283506225</v>
+        <v>120.389733062742</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,20 +859,12 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>407.751969890994</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-387.005473417217</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-807.724650175618</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1202.5094131992</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1623.22858995761</v>
-      </c>
+        <v>236.555265728961</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +872,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>315.751969890994</v>
+        <v>144.555265728961</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,20 +883,12 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>338.409705200122</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-351.246842914962</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-716.328966539059</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1028.06625331521</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1393.1483769393</v>
-      </c>
+        <v>235.409950213816</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +896,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>278.409705200122</v>
+        <v>175.409950213816</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,20 +907,12 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>287.172035098865</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-324.060895594423</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-647.628063884759</v>
-      </c>
-      <c r="E22" t="n">
-        <v>898.404965792152</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1221.97213408249</v>
-      </c>
+        <v>237.72723334921</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +920,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>238.172035098865</v>
+        <v>188.72723334921</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,20 +931,12 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>271.138471250333</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-331.009716905964</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-649.767712997402</v>
-      </c>
-      <c r="E23" t="n">
-        <v>873.28665940663</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1192.04465549807</v>
-      </c>
+        <v>233.990964791944</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +944,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>225.138471250333</v>
+        <v>187.990964791944</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,20 +955,12 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>228.021219201807</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-299.878645781263</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-579.331953801957</v>
-      </c>
-      <c r="E24" t="n">
-        <v>755.921084184877</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1035.37439220557</v>
-      </c>
+        <v>233.280495615264</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +968,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>166.021219201807</v>
+        <v>171.280495615264</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,20 +979,12 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>204.002757654794</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-287.958002814693</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-548.386298120249</v>
-      </c>
-      <c r="E25" t="n">
-        <v>695.963518124281</v>
-      </c>
-      <c r="F25" t="n">
-        <v>956.391813429837</v>
-      </c>
+        <v>231.438740932306</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +992,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>132.002757654794</v>
+        <v>159.438740932306</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,20 +1003,12 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>233.036260774527</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-351.923989685411</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-661.583241174111</v>
-      </c>
-      <c r="E26" t="n">
-        <v>817.996511234465</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1127.65576272316</v>
-      </c>
+        <v>232.376460345496</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>207.036260774527</v>
+        <v>206.376460345496</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,20 +1027,12 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>171.220563980073</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-275.854082531669</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-512.521104418283</v>
-      </c>
-      <c r="E27" t="n">
-        <v>618.295210491815</v>
-      </c>
-      <c r="F27" t="n">
-        <v>854.962232378428</v>
-      </c>
+        <v>232.41328367351</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>141.220563980073</v>
+        <v>202.41328367351</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,20 +1051,12 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>188.641437821857</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-323.422556777626</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-594.492861396297</v>
-      </c>
-      <c r="E28" t="n">
-        <v>700.70543242134</v>
-      </c>
-      <c r="F28" t="n">
-        <v>971.775737040012</v>
-      </c>
+        <v>233.49519712826</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1064,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>157.641437821857</v>
+        <v>202.49519712826</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,20 +1075,12 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>249.674051132175</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-454.513112327538</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-827.287279073796</v>
-      </c>
-      <c r="E29" t="n">
-        <v>953.861214591889</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1326.63538133815</v>
-      </c>
+        <v>231.777077550095</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>215.674051132175</v>
+        <v>197.777077550095</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,20 +1099,12 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>346.244788814433</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-667.924196160921</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-1204.79282701848</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1360.41377378979</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1897.28240464735</v>
-      </c>
+        <v>232.077656994851</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1112,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>309.244788814433</v>
+        <v>195.077656994851</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,20 +1123,12 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>418.323077108189</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-853.580743831977</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-1526.88595533698</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1690.22689804835</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2363.53210955336</v>
-      </c>
+        <v>231.221362513494</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1136,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>356.323077108189</v>
+        <v>169.221362513494</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,20 +1147,12 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>407.754692916266</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-878.64541814633</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-1559.62450209847</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1694.15480397886</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2375.133887931</v>
-      </c>
+        <v>233.176440911194</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1160,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>328.754692916266</v>
+        <v>154.176440911194</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,20 +1171,12 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>338.411965147952</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-768.954627902795</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-1355.1590923225</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1445.7785581987</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2031.98302261841</v>
-      </c>
+        <v>233.851522856042</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1184,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>121.411965147952</v>
+        <v>16.8515228560419</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,20 +1195,12 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>287.173952874294</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-687.157140584038</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-1202.93686555722</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1261.50504633262</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1777.28477130581</v>
-      </c>
+        <v>235.059182473598</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1208,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>191.173952874294</v>
+        <v>139.059182473598</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,20 +1219,12 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>271.140281951357</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-682.381373198826</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-1187.14524694907</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1224.66193710154</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1729.42581085178</v>
-      </c>
+        <v>234.444572922251</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1232,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>179.140281951357</v>
+        <v>142.444572922251</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,20 +1243,12 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>228.022741959729</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-602.898299584609</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-1042.76132885629</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1058.94378350407</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1498.80681277575</v>
-      </c>
+        <v>233.876899369784</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1256,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>154.022741959729</v>
+        <v>159.876899369784</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
